--- a/Questions_list.xlsx
+++ b/Questions_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Covid_19_Checklist_App\CovidChecklist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LIVE_PROJECTS\COVID-19-Web\Covid_CheckList_App-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDCBEC64-ED60-4DD8-A6BF-31DE347039F4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DF0760-7075-4641-B5FE-CEA838424E57}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="1875" windowWidth="21600" windowHeight="12750"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19290" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,10 +40,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Are you experiencing cold or flu-like symptoms?
-(i.e. cough, cold, sore throat, high temperature or breathing difficulty)</t>
-  </si>
-  <si>
     <t>Do you have a compromised immune system?</t>
   </si>
   <si>
@@ -53,45 +49,44 @@
     <t>Are you staying at (residential location) containment zone declared by concerned authorities ?</t>
   </si>
   <si>
-    <t>If you experience any of the above symptoms or have close contact with someone who has COVID-19 you must 
-·         cease work immediately
-·         arrange medical testing or treatment
-·         Contact Sonal Lingal [HR Manager] @ phone +91 88888 3746</t>
-  </si>
-  <si>
-    <t>Policy
-·         I have read and understood the Work Health and Safety Policy – COVID 19
-·         I have read and understood the Safe Work Method Statement?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Agree </t>
   </si>
   <si>
     <t>Disagree</t>
   </si>
   <si>
-    <t xml:space="preserve">SOCIAL DISTANCING
-·         2 metre social distancing is required between all employees;
-·         Re-arrange workstations and/or desks to meet social distancing requirements;
-·         Minimise meetings, hold meetings in open areas or via skype;
-·    </t>
-  </si>
-  <si>
-    <t>HYGIENE
-·         20 second handwashing using soap and water, or hand sanitiser, is required at the start of work and at regular intervals during the day;
-·         Avoid touching door handles to the possible extent
-·         Use a tissue or crook of yo</t>
-  </si>
-  <si>
-    <t>PLANNING AHEAD
-·         Conduct a risk assessment of work activities to ensure able to use safe work practices, whilst maintaining social distancing and a high level of hygiene
-·         Alert the HR or Operations Manager if cleaning equipment and perso</t>
+    <t>Are you experiencing cold or flu-like symptoms? &lt;br&gt; (i.e. cough, cold, sore throat, high temperature or breathing difficulty)</t>
+  </si>
+  <si>
+    <t>SOCIAL DISTANCING&lt;br/&gt;
+&amp;#8212 2 metre social distancing is required between all employees.&lt;br/&gt;
+&amp;#8212 Re-arrange workstations and/or desks to meet social distancing requirements.&lt;br/&gt;
+&amp;#8212Minimise meetings, hold meetings in open areas or via skype.</t>
+  </si>
+  <si>
+    <t>PLANNING AHEAD &lt;br/&gt;
+&amp;#8212  Conduct a risk assessment of work activities to ensure able to use safe work practices, whilst maintaining social distancing and a high level of hygiene.&lt;br/&gt;
+&amp;#8212  Alert the HR or Operations Manager if cleaning equipment and person.&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>HYGIENE &lt;br/&gt;
+&amp;#8212 20 second handwashing using soap and water, or hand sanitiser, is required at the start of work and at regular intervals during the day.&lt;br/&gt;
+&amp;#8212  Avoid touching door handles to the possible extent.&lt;br/&gt;
+&amp;#8212  Use a tissue or crook of you.</t>
+  </si>
+  <si>
+    <t>Policy&lt;br/&gt;
+&amp;#8212 I have read and understood the Work Health and Safety Policy  COVID-19.&lt;br/&gt;
+&amp;#8212 I have read and understood the Safe Work Method Statement.</t>
+  </si>
+  <si>
+    <t>If you experience any of the above symptoms or have close contact with someone who has COVID-19,&lt;br/&gt; you must &lt;br/&gt; &amp;#8212 Cease work immediately. &lt;br/&gt; &amp;#8212 Arrange medical testing or treatment. &lt;br/&gt; &amp;#8212 Contact Sonal Lingal [HR Manager] @ phone +91 88888 3746.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -525,10 +520,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -559,9 +556,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -572,7 +569,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -583,7 +580,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -594,7 +591,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -603,9 +600,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -614,48 +611,48 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
